--- a/sd-modif-narratif/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/sd-modif-narratif/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T08:59:47+00:00</t>
+    <t>2024-03-14T09:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-modif-narratif/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/sd-modif-narratif/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-14T09:56:15+00:00</t>
+    <t>2024-03-14T13:45:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-modif-narratif/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/sd-modif-narratif/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-14T13:45:03+00:00</t>
+    <t>2024-06-13T15:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
